--- a/apps/dataset/template/table_template_en.xlsx
+++ b/apps/dataset/template/table_template_en.xlsx
@@ -4,65 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12260"/>
+    <workbookView windowWidth="28000" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
-    <t>Position</t>
+    <t>职务</t>
   </si>
   <si>
-    <t>Reimbursement type</t>
+    <t>报销类型</t>
   </si>
   <si>
-    <t>First-tier city reimbursement standard (yuan)</t>
+    <t>一线城市报销标准（元）</t>
   </si>
   <si>
-    <t>Second-tier city reimbursement standard (yuan)</t>
+    <t>二线城市报销标准（元）</t>
   </si>
   <si>
-    <t>Third-tier city reimbursement standard (yuan)</t>
+    <t>三线城市报销标准（元）</t>
   </si>
   <si>
-    <t>ordinary employees</t>
+    <t>普通员工</t>
   </si>
   <si>
-    <t>accommodation</t>
+    <t>住宿费</t>
   </si>
   <si>
-    <t>department head</t>
+    <t>部门主管</t>
   </si>
   <si>
-    <t>department director</t>
+    <t>部门总监</t>
   </si>
   <si>
-    <t>regional general manager</t>
+    <t>区域总经理</t>
   </si>
   <si>
-    <t>food expenses</t>
+    <t>伙食费</t>
   </si>
   <si>
-    <t>transportation expenses</t>
+    <t>交通费</t>
   </si>
 </sst>
 </file>
@@ -686,12 +673,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1224,12 +1208,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.5961538461538" customWidth="1"/>
+    <col min="1" max="1" width="13.1442307692308" customWidth="1"/>
     <col min="2" max="2" width="15.3846153846154" customWidth="1"/>
     <col min="3" max="3" width="27.5576923076923" customWidth="1"/>
     <col min="4" max="4" width="25.4711538461538" customWidth="1"/>
@@ -1240,16 +1224,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
